--- a/biology/Zoologie/Choreutidae/Choreutidae.xlsx
+++ b/biology/Zoologie/Choreutidae/Choreutidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Choreutidae sont une famille de lépidoptères, la seule famille de la super-famille des Choreutoidea[1]. Elle comporte 18 genres et environ 406 espèces[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Choreutidae sont une famille de lépidoptères, la seule famille de la super-famille des Choreutoidea. Elle comporte 18 genres et environ 406 espèces. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 mars 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 mars 2023) :
 sous-famille des Millierinae Stainton, 1854
 sous-famille des Choreutinae Stainton, 1854
 sous-famille des Brenthiinae Heppner in Heppner &amp; Duckworth, 1981
-genre[3] Niveas Rota, 2013</t>
+genre Niveas Rota, 2013</t>
         </is>
       </c>
     </row>
@@ -545,10 +559,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide de ce taxon est Choreutidae Stainton, 1854[2].
-Choreutidae a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide de ce taxon est Choreutidae Stainton, 1854.
+Choreutidae a pour synonymes :
 Hemerophilidae
 Simaethidae</t>
         </is>
